--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/SMR-monitoring/MRNE395-2024FA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{90BFAA4B-A72A-B745-8506-3982B1E8B90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C8405C-D7B6-CD47-80E5-C387386C3A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37820" yWindow="500" windowWidth="28040" windowHeight="18660" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
+    <workbookView xWindow="29060" yWindow="2440" windowWidth="22500" windowHeight="16840" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>date</t>
   </si>
@@ -28,33 +28,15 @@
     <t>Final exam Thursday 12/12 9:00-11:15</t>
   </si>
   <si>
-    <t>Intro to coastal monitoring</t>
-  </si>
-  <si>
-    <t>WQ parameters and CTDs</t>
-  </si>
-  <si>
     <t>Data management and NPP</t>
   </si>
   <si>
-    <t>Benthic monitoring</t>
-  </si>
-  <si>
     <t>Continuous monitoring</t>
   </si>
   <si>
-    <t>Plankton monitoring</t>
-  </si>
-  <si>
-    <t>NPP measurements</t>
-  </si>
-  <si>
     <t>Hydrologic monitoring</t>
   </si>
   <si>
-    <t>Water quality monitoring and knot tying</t>
-  </si>
-  <si>
     <t>Skills review</t>
   </si>
   <si>
@@ -67,77 +49,110 @@
     <t>No class - Thanksgiving</t>
   </si>
   <si>
-    <t>activity</t>
-  </si>
-  <si>
-    <t>quiz</t>
-  </si>
-  <si>
-    <t>Quiz 3: NPP and data management</t>
-  </si>
-  <si>
-    <t>Quiz 4: Plankton monitoring</t>
-  </si>
-  <si>
-    <t>Quiz 5: Continuous monitoring</t>
-  </si>
-  <si>
-    <t>NPP incubations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quiz 6: NPP </t>
-  </si>
-  <si>
-    <t>NPP data</t>
-  </si>
-  <si>
-    <t>Quiz 7: Hydrologic monitoring</t>
-  </si>
-  <si>
-    <t>Basic water quality measurements</t>
-  </si>
-  <si>
     <t>week</t>
   </si>
   <si>
-    <t>topic and slides</t>
-  </si>
-  <si>
-    <t>Quiz 1: Chesapeake Watershed Agreement</t>
-  </si>
-  <si>
-    <t>Quiz 2: Water quality and filtering</t>
-  </si>
-  <si>
-    <t>More water quality</t>
-  </si>
-  <si>
-    <t>Data entry and NPP</t>
-  </si>
-  <si>
-    <t>Benthic sampling</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>submit</t>
-  </si>
-  <si>
-    <t>Tracking progress</t>
-  </si>
-  <si>
-    <t>Filtering methods</t>
-  </si>
-  <si>
-    <t>Deriving WQ criteria</t>
+    <t>topic and materials</t>
+  </si>
+  <si>
+    <t>Water quality parameters and filtering</t>
+  </si>
+  <si>
+    <t>SAV sample processing</t>
+  </si>
+  <si>
+    <t>Monitoring measurements</t>
+  </si>
+  <si>
+    <t>F 8/30</t>
+  </si>
+  <si>
+    <t>F 9/6</t>
+  </si>
+  <si>
+    <t>F9/13</t>
+  </si>
+  <si>
+    <t>F 9/20</t>
+  </si>
+  <si>
+    <t>F 9/27</t>
+  </si>
+  <si>
+    <t>F 10/4</t>
+  </si>
+  <si>
+    <t>F 10/11</t>
+  </si>
+  <si>
+    <t>F 10/18</t>
+  </si>
+  <si>
+    <t>F 10/25</t>
+  </si>
+  <si>
+    <t>F 11/1</t>
+  </si>
+  <si>
+    <t>F 11/8</t>
+  </si>
+  <si>
+    <t>F 11/15</t>
+  </si>
+  <si>
+    <t>F 11/22</t>
+  </si>
+  <si>
+    <t>F 11/29</t>
+  </si>
+  <si>
+    <t>HW1</t>
+  </si>
+  <si>
+    <t>HW2</t>
+  </si>
+  <si>
+    <t>HW3</t>
+  </si>
+  <si>
+    <t>HW4</t>
+  </si>
+  <si>
+    <t>HW5</t>
+  </si>
+  <si>
+    <t>HW6</t>
+  </si>
+  <si>
+    <t>HW7</t>
+  </si>
+  <si>
+    <t>HW8</t>
+  </si>
+  <si>
+    <t>HW10</t>
+  </si>
+  <si>
+    <t>HW9</t>
+  </si>
+  <si>
+    <t>F 12/6</t>
+  </si>
+  <si>
+    <t>F 12/12</t>
+  </si>
+  <si>
+    <t>homework</t>
+  </si>
+  <si>
+    <t>[Intro to coastal monitoring](https://smr-monitoring.github.io/lesson-plans/01-introductions.html)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -268,6 +283,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -614,9 +636,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -992,267 +1015,235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDABB12-4657-E148-B974-850E15FFCCAA}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" customWidth="1"/>
-    <col min="4" max="5" width="37" customWidth="1"/>
-    <col min="6" max="6" width="27.1640625" customWidth="1"/>
-    <col min="7" max="7" width="45.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.83203125" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="83.5" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>45534</v>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>45541</v>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>45548</v>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>45555</v>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>45562</v>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>45569</v>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>45576</v>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>45583</v>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>45590</v>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>45597</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>45604</v>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>45611</v>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>45618</v>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>45625</v>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>45632</v>
+      <c r="B16" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>45638</v>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/SMR-monitoring/MRNE395-2024FA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C8405C-D7B6-CD47-80E5-C387386C3A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A03206-8312-D544-B446-3594C708CA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29060" yWindow="2440" windowWidth="22500" windowHeight="16840" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -55,9 +55,6 @@
     <t>topic and materials</t>
   </si>
   <si>
-    <t>Water quality parameters and filtering</t>
-  </si>
-  <si>
     <t>SAV sample processing</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>[Intro to coastal monitoring](https://smr-monitoring.github.io/lesson-plans/01-introductions.html)</t>
+  </si>
+  <si>
+    <t>[Water quality criteria and filtering](https://smr-monitoring.github.io/lesson-plans/02-wq-criteria.html)</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1040,7 +1040,7 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1048,10 +1048,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1059,13 +1059,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1073,13 +1073,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1087,13 +1087,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1101,13 +1101,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1115,13 +1115,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1129,13 +1129,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1143,13 +1143,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1157,13 +1157,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1171,13 +1171,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1185,13 +1185,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1199,7 +1199,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -1210,7 +1210,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -1221,7 +1221,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -1232,7 +1232,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -1243,7 +1243,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/SMR-monitoring/MRNE395-2024FA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A03206-8312-D544-B446-3594C708CA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE48E02-1CC5-BD4D-BC7B-7B49BD61B0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
+    <workbookView xWindow="16660" yWindow="3340" windowWidth="21880" windowHeight="14060" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>date</t>
   </si>
@@ -28,12 +28,6 @@
     <t>Final exam Thursday 12/12 9:00-11:15</t>
   </si>
   <si>
-    <t>Data management and NPP</t>
-  </si>
-  <si>
-    <t>Continuous monitoring</t>
-  </si>
-  <si>
     <t>Hydrologic monitoring</t>
   </si>
   <si>
@@ -67,9 +61,6 @@
     <t>F 9/6</t>
   </si>
   <si>
-    <t>F9/13</t>
-  </si>
-  <si>
     <t>F 9/20</t>
   </si>
   <si>
@@ -146,6 +137,21 @@
   </si>
   <si>
     <t>[Water quality criteria and filtering](https://smr-monitoring.github.io/lesson-plans/02-wq-criteria.html)</t>
+  </si>
+  <si>
+    <t>[NPP](https://smr-monitoring.github.io/lesson-plans/03-npp.html)</t>
+  </si>
+  <si>
+    <t>NPP calculations and calibration</t>
+  </si>
+  <si>
+    <t>Continuous monitoring - deploy</t>
+  </si>
+  <si>
+    <t>Continuous monitoring - retrieve</t>
+  </si>
+  <si>
+    <t>F 9/13</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1024,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1031,16 +1037,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1048,10 +1054,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1059,13 +1065,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1073,13 +1079,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1087,13 +1093,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1101,13 +1107,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1115,13 +1121,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1129,13 +1135,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1143,13 +1149,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1157,13 +1163,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1171,13 +1177,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1185,13 +1191,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1199,10 +1205,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1210,10 +1216,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1221,10 +1227,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1232,10 +1238,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1243,7 +1249,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/SMR-monitoring/MRNE395-2024FA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE48E02-1CC5-BD4D-BC7B-7B49BD61B0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5976E1F-761F-5741-834A-FBEEB0DA4E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16660" yWindow="3340" windowWidth="21880" windowHeight="14060" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>date</t>
   </si>
@@ -94,21 +107,6 @@
     <t>F 11/29</t>
   </si>
   <si>
-    <t>HW1</t>
-  </si>
-  <si>
-    <t>HW2</t>
-  </si>
-  <si>
-    <t>HW3</t>
-  </si>
-  <si>
-    <t>HW4</t>
-  </si>
-  <si>
-    <t>HW5</t>
-  </si>
-  <si>
     <t>HW6</t>
   </si>
   <si>
@@ -142,16 +140,37 @@
     <t>[NPP](https://smr-monitoring.github.io/lesson-plans/03-npp.html)</t>
   </si>
   <si>
-    <t>NPP calculations and calibration</t>
-  </si>
-  <si>
-    <t>Continuous monitoring - deploy</t>
-  </si>
-  <si>
-    <t>Continuous monitoring - retrieve</t>
-  </si>
-  <si>
     <t>F 9/13</t>
+  </si>
+  <si>
+    <t>[NPP calculations and calibration](https://smr-monitoring.github.io/lesson-plans/04-calibration.html)</t>
+  </si>
+  <si>
+    <t>[Continuous monitoring - deploy](https://smr-monitoring.github.io/lesson-plans/05-conmon-deploy.html)</t>
+  </si>
+  <si>
+    <t>[Continuous monitoring - retrieve](https://smr-monitoring.github.io/lesson-plans/06-conmon-retrieve.html)</t>
+  </si>
+  <si>
+    <t>HW1 worksheet</t>
+  </si>
+  <si>
+    <t>HW2 worksheet</t>
+  </si>
+  <si>
+    <t>HW3 worksheet</t>
+  </si>
+  <si>
+    <t>HW4: tie a bowline, lobster buoy hitch, and half hitch</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>HW5: check on your sensors</t>
+  </si>
+  <si>
+    <t>bring your line to class</t>
   </si>
 </sst>
 </file>
@@ -1021,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDABB12-4657-E148-B974-850E15FFCCAA}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1035,7 +1054,7 @@
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1046,10 +1065,13 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1057,10 +1079,10 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1068,27 +1090,27 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1096,13 +1118,13 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1110,13 +1132,16 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1124,13 +1149,13 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1141,10 +1166,10 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1155,10 +1180,10 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1169,10 +1194,10 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1183,10 +1208,10 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1197,10 +1222,10 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1211,7 +1236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1222,7 +1247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1233,12 +1258,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1249,7 +1274,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/SMR-monitoring/MRNE395-2024FA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5976E1F-761F-5741-834A-FBEEB0DA4E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929566C8-4C56-8342-B051-1F77827C113C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>date</t>
   </si>
@@ -167,10 +167,13 @@
     <t>notes</t>
   </si>
   <si>
-    <t>HW5: check on your sensors</t>
-  </si>
-  <si>
-    <t>bring your line to class</t>
+    <t>HW5: [Monitoring station site check]()</t>
+  </si>
+  <si>
+    <t>bring your line to class; be prepared to go outside</t>
+  </si>
+  <si>
+    <t>be prepared to go outside</t>
   </si>
 </sst>
 </file>
@@ -1154,6 +1157,9 @@
       <c r="D7" t="s">
         <v>44</v>
       </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/SMR-monitoring/MRNE395-2024FA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929566C8-4C56-8342-B051-1F77827C113C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C94A5EB-1A7B-9B40-9F1A-C67675BDFEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
@@ -167,13 +167,13 @@
     <t>notes</t>
   </si>
   <si>
-    <t>HW5: [Monitoring station site check]()</t>
-  </si>
-  <si>
     <t>bring your line to class; be prepared to go outside</t>
   </si>
   <si>
     <t>be prepared to go outside</t>
+  </si>
+  <si>
+    <t>HW5: [Monitoring station site check](https://docs.google.com/spreadsheets/d/1J3YEvWHqeVdu75PupAPLOFJHA1BwFn_1tIiBC8eVfvY/edit?gid=0#gid=0)</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1141,7 +1141,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1155,10 +1155,10 @@
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/SMR-monitoring/MRNE395-2024FA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C94A5EB-1A7B-9B40-9F1A-C67675BDFEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEB123A-0538-DD48-90AF-9A432F94439A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>date</t>
   </si>
@@ -107,9 +107,6 @@
     <t>F 11/29</t>
   </si>
   <si>
-    <t>HW6</t>
-  </si>
-  <si>
     <t>HW7</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>HW5: [Monitoring station site check](https://docs.google.com/spreadsheets/d/1J3YEvWHqeVdu75PupAPLOFJHA1BwFn_1tIiBC8eVfvY/edit?gid=0#gid=0)</t>
+  </si>
+  <si>
+    <t>HW6: tie a clove hitch and cleat hitch</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1068,10 +1068,10 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1082,7 +1082,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1093,10 +1093,10 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1104,13 +1104,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1121,10 +1121,10 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1135,13 +1135,13 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1152,13 +1152,13 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1172,7 +1172,10 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1186,7 +1189,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1200,7 +1203,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1214,7 +1217,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1228,7 +1231,7 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1269,7 +1272,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1280,7 +1283,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/SMR-monitoring/MRNE395-2024FA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEB123A-0538-DD48-90AF-9A432F94439A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A601FA-8B16-4D48-91AB-F968D00DD0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>Final exam Thursday 12/12 9:00-11:15</t>
   </si>
   <si>
-    <t>Hydrologic monitoring</t>
-  </si>
-  <si>
     <t>Skills review</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t>topic and materials</t>
   </si>
   <si>
-    <t>SAV sample processing</t>
-  </si>
-  <si>
     <t>Monitoring measurements</t>
   </si>
   <si>
@@ -107,12 +101,6 @@
     <t>F 11/29</t>
   </si>
   <si>
-    <t>HW7</t>
-  </si>
-  <si>
-    <t>HW8</t>
-  </si>
-  <si>
     <t>HW10</t>
   </si>
   <si>
@@ -174,6 +162,18 @@
   </si>
   <si>
     <t>HW6: tie a clove hitch and cleat hitch</t>
+  </si>
+  <si>
+    <t>No class - CBG fieldwork</t>
+  </si>
+  <si>
+    <t>HW8: tie a cleat hitch</t>
+  </si>
+  <si>
+    <t>HW7:  tie a clove hitch</t>
+  </si>
+  <si>
+    <t>[SAV monitoring and sample processing](https://smr-monitoring.github.io/lesson-plans/07-sav-monitoring.html)</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1059,19 +1059,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1079,10 +1079,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1090,13 +1090,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1104,13 +1104,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1118,13 +1118,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1132,16 +1132,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1149,16 +1149,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1166,16 +1166,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1183,13 +1183,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1197,13 +1197,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1211,13 +1211,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1225,13 +1225,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1239,10 +1239,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1250,10 +1250,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1261,10 +1261,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1272,10 +1272,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1283,7 +1283,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/SMR-monitoring/MRNE395-2024FA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A601FA-8B16-4D48-91AB-F968D00DD0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983C3005-6638-0C48-8BF8-295DD5BA313B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>date</t>
   </si>
@@ -161,19 +161,22 @@
     <t>HW5: [Monitoring station site check](https://docs.google.com/spreadsheets/d/1J3YEvWHqeVdu75PupAPLOFJHA1BwFn_1tIiBC8eVfvY/edit?gid=0#gid=0)</t>
   </si>
   <si>
-    <t>HW6: tie a clove hitch and cleat hitch</t>
-  </si>
-  <si>
     <t>No class - CBG fieldwork</t>
   </si>
   <si>
-    <t>HW8: tie a cleat hitch</t>
-  </si>
-  <si>
-    <t>HW7:  tie a clove hitch</t>
-  </si>
-  <si>
     <t>[SAV monitoring and sample processing](https://smr-monitoring.github.io/lesson-plans/07-sav-monitoring.html)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HW6: tie a clove hitch </t>
+  </si>
+  <si>
+    <t>HW7: tie a clove hitch and cleat hitch</t>
+  </si>
+  <si>
+    <t>HW8</t>
+  </si>
+  <si>
+    <t>bring your line to class</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1049,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1169,13 +1172,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" t="s">
         <v>42</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1186,10 +1183,13 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1203,7 +1203,10 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1217,7 +1220,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1231,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1243,6 +1246,9 @@
       </c>
       <c r="C13" t="s">
         <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/SMR-monitoring/MRNE395-2024FA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983C3005-6638-0C48-8BF8-295DD5BA313B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEDC10C-6D77-3047-9F57-B5B486B694E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>date</t>
   </si>
@@ -41,12 +41,6 @@
     <t>Final exam Thursday 12/12 9:00-11:15</t>
   </si>
   <si>
-    <t>Skills review</t>
-  </si>
-  <si>
-    <t>Skills assessment</t>
-  </si>
-  <si>
     <t>DIY monitoring technology</t>
   </si>
   <si>
@@ -101,12 +95,6 @@
     <t>F 11/29</t>
   </si>
   <si>
-    <t>HW10</t>
-  </si>
-  <si>
-    <t>HW9</t>
-  </si>
-  <si>
     <t>F 12/6</t>
   </si>
   <si>
@@ -173,10 +161,22 @@
     <t>HW7: tie a clove hitch and cleat hitch</t>
   </si>
   <si>
-    <t>HW8</t>
-  </si>
-  <si>
     <t>bring your line to class</t>
+  </si>
+  <si>
+    <t>No class - CBG out sick</t>
+  </si>
+  <si>
+    <t>USGS station field trip</t>
+  </si>
+  <si>
+    <t>[Skills assessment](https://smr-monitoring.github.io/lesson-plans/09-skills-assessment.html)</t>
+  </si>
+  <si>
+    <t>[Skills review](https://smr-monitoring.github.io/lesson-plans/08-skills-review.html)</t>
+  </si>
+  <si>
+    <t>[Sign up for a skills assessment appointment here](https://docs.google.com/spreadsheets/d/1hLHxzoFL6l4t2Bhw_rAb9f7xipIo0W3GSJmhjz17Hp8/edit?usp=sharing)</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1062,19 +1062,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1082,10 +1082,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1093,13 +1093,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1107,13 +1107,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1121,13 +1121,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1135,16 +1135,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1152,16 +1152,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1169,10 +1169,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1180,16 +1180,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1197,16 +1197,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1214,13 +1214,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1228,13 +1225,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1242,13 +1236,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1256,10 +1247,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1267,10 +1261,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1278,10 +1272,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1289,7 +1283,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/SMR-monitoring/MRNE395-2024FA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/SMR-monitoring/MRNE395-2025SP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEDC10C-6D77-3047-9F57-B5B486B694E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A495564-96C0-164C-AC55-29B52F18BA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
+    <workbookView xWindow="31320" yWindow="2860" windowWidth="28800" windowHeight="16140" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -33,128 +33,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>date</t>
   </si>
   <si>
-    <t>Final exam Thursday 12/12 9:00-11:15</t>
-  </si>
-  <si>
     <t>DIY monitoring technology</t>
   </si>
   <si>
-    <t>No class - Thanksgiving</t>
-  </si>
-  <si>
     <t>week</t>
   </si>
   <si>
     <t>topic and materials</t>
   </si>
   <si>
-    <t>Monitoring measurements</t>
-  </si>
-  <si>
-    <t>F 8/30</t>
-  </si>
-  <si>
-    <t>F 9/6</t>
-  </si>
-  <si>
-    <t>F 9/20</t>
-  </si>
-  <si>
-    <t>F 9/27</t>
-  </si>
-  <si>
-    <t>F 10/4</t>
-  </si>
-  <si>
-    <t>F 10/11</t>
-  </si>
-  <si>
-    <t>F 10/18</t>
-  </si>
-  <si>
-    <t>F 10/25</t>
-  </si>
-  <si>
-    <t>F 11/1</t>
-  </si>
-  <si>
-    <t>F 11/8</t>
-  </si>
-  <si>
-    <t>F 11/15</t>
-  </si>
-  <si>
-    <t>F 11/22</t>
-  </si>
-  <si>
-    <t>F 11/29</t>
-  </si>
-  <si>
-    <t>F 12/6</t>
-  </si>
-  <si>
-    <t>F 12/12</t>
-  </si>
-  <si>
     <t>homework</t>
   </si>
   <si>
     <t>[Intro to coastal monitoring](https://smr-monitoring.github.io/lesson-plans/01-introductions.html)</t>
   </si>
   <si>
-    <t>[Water quality criteria and filtering](https://smr-monitoring.github.io/lesson-plans/02-wq-criteria.html)</t>
-  </si>
-  <si>
-    <t>[NPP](https://smr-monitoring.github.io/lesson-plans/03-npp.html)</t>
-  </si>
-  <si>
-    <t>F 9/13</t>
-  </si>
-  <si>
-    <t>[NPP calculations and calibration](https://smr-monitoring.github.io/lesson-plans/04-calibration.html)</t>
-  </si>
-  <si>
-    <t>[Continuous monitoring - deploy](https://smr-monitoring.github.io/lesson-plans/05-conmon-deploy.html)</t>
-  </si>
-  <si>
-    <t>[Continuous monitoring - retrieve](https://smr-monitoring.github.io/lesson-plans/06-conmon-retrieve.html)</t>
-  </si>
-  <si>
     <t>HW1 worksheet</t>
   </si>
   <si>
     <t>HW2 worksheet</t>
   </si>
   <si>
-    <t>HW3 worksheet</t>
-  </si>
-  <si>
     <t>HW4: tie a bowline, lobster buoy hitch, and half hitch</t>
   </si>
   <si>
     <t>notes</t>
   </si>
   <si>
-    <t>bring your line to class; be prepared to go outside</t>
-  </si>
-  <si>
-    <t>be prepared to go outside</t>
-  </si>
-  <si>
-    <t>HW5: [Monitoring station site check](https://docs.google.com/spreadsheets/d/1J3YEvWHqeVdu75PupAPLOFJHA1BwFn_1tIiBC8eVfvY/edit?gid=0#gid=0)</t>
-  </si>
-  <si>
-    <t>No class - CBG fieldwork</t>
-  </si>
-  <si>
-    <t>[SAV monitoring and sample processing](https://smr-monitoring.github.io/lesson-plans/07-sav-monitoring.html)</t>
-  </si>
-  <si>
     <t xml:space="preserve">HW6: tie a clove hitch </t>
   </si>
   <si>
@@ -164,19 +74,64 @@
     <t>bring your line to class</t>
   </si>
   <si>
-    <t>No class - CBG out sick</t>
-  </si>
-  <si>
-    <t>USGS station field trip</t>
-  </si>
-  <si>
-    <t>[Skills assessment](https://smr-monitoring.github.io/lesson-plans/09-skills-assessment.html)</t>
-  </si>
-  <si>
-    <t>[Skills review](https://smr-monitoring.github.io/lesson-plans/08-skills-review.html)</t>
-  </si>
-  <si>
-    <t>[Sign up for a skills assessment appointment here](https://docs.google.com/spreadsheets/d/1hLHxzoFL6l4t2Bhw_rAb9f7xipIo0W3GSJmhjz17Hp8/edit?usp=sharing)</t>
+    <t>Th 1/16</t>
+  </si>
+  <si>
+    <t>Th 1/23</t>
+  </si>
+  <si>
+    <t>Th 1/30</t>
+  </si>
+  <si>
+    <t>Th 2/6</t>
+  </si>
+  <si>
+    <t>Th 2/13</t>
+  </si>
+  <si>
+    <t>Th 2/20</t>
+  </si>
+  <si>
+    <t>Th 2/27</t>
+  </si>
+  <si>
+    <t>Th 3/6</t>
+  </si>
+  <si>
+    <t>Th 3/13</t>
+  </si>
+  <si>
+    <t>No class - spring break</t>
+  </si>
+  <si>
+    <t>Th 3/20</t>
+  </si>
+  <si>
+    <t>Th 3/27</t>
+  </si>
+  <si>
+    <t>Th 4/3</t>
+  </si>
+  <si>
+    <t>Th 4/10</t>
+  </si>
+  <si>
+    <t>Th 4/17</t>
+  </si>
+  <si>
+    <t>Th 4/24</t>
+  </si>
+  <si>
+    <t>[Water quality criteria](https://smr-monitoring.github.io/lesson-plans/02-wq-criteria.html)</t>
+  </si>
+  <si>
+    <t>[Calibration](https://smr-monitoring.github.io/lesson-plans/04-calibration.html)</t>
+  </si>
+  <si>
+    <t>Continuous monitoring</t>
+  </si>
+  <si>
+    <t>Intro to EXOs</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1004,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1062,19 +1017,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1082,10 +1037,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1093,13 +1048,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1107,13 +1062,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1121,13 +1076,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1135,16 +1087,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1152,16 +1104,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1169,10 +1115,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1180,16 +1123,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1197,16 +1137,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1214,21 +1151,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1236,10 +1171,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1247,13 +1179,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1261,10 +1187,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1272,22 +1195,14 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="s">
         <v>1</v>
       </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/SMR-monitoring/MRNE395-2025SP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A495564-96C0-164C-AC55-29B52F18BA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D23080-E9C8-AB40-A404-72AFAFF90E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31320" yWindow="2860" windowWidth="28800" windowHeight="16140" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -53,12 +53,6 @@
     <t>[Intro to coastal monitoring](https://smr-monitoring.github.io/lesson-plans/01-introductions.html)</t>
   </si>
   <si>
-    <t>HW1 worksheet</t>
-  </si>
-  <si>
-    <t>HW2 worksheet</t>
-  </si>
-  <si>
     <t>HW4: tie a bowline, lobster buoy hitch, and half hitch</t>
   </si>
   <si>
@@ -132,6 +126,12 @@
   </si>
   <si>
     <t>Intro to EXOs</t>
+  </si>
+  <si>
+    <t>HW1 in GC</t>
+  </si>
+  <si>
+    <t>HW2 in GC</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1004,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1029,7 +1029,7 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1037,7 +1037,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1048,13 +1048,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1062,13 +1062,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
         <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1076,10 +1076,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1087,16 +1087,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1104,10 +1104,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1115,7 +1115,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1123,13 +1123,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
         <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1137,13 +1137,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1151,7 +1151,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2"/>
     </row>
@@ -1160,10 +1160,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1171,7 +1171,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1179,7 +1179,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1187,7 +1187,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1195,7 +1195,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/SMR-monitoring/MRNE395-2025SP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D23080-E9C8-AB40-A404-72AFAFF90E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09134D52-4228-8F4E-A514-85CEA9CC10C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>date</t>
   </si>
@@ -53,9 +53,6 @@
     <t>[Intro to coastal monitoring](https://smr-monitoring.github.io/lesson-plans/01-introductions.html)</t>
   </si>
   <si>
-    <t>HW4: tie a bowline, lobster buoy hitch, and half hitch</t>
-  </si>
-  <si>
     <t>notes</t>
   </si>
   <si>
@@ -119,19 +116,19 @@
     <t>[Water quality criteria](https://smr-monitoring.github.io/lesson-plans/02-wq-criteria.html)</t>
   </si>
   <si>
-    <t>[Calibration](https://smr-monitoring.github.io/lesson-plans/04-calibration.html)</t>
-  </si>
-  <si>
     <t>Continuous monitoring</t>
   </si>
   <si>
-    <t>Intro to EXOs</t>
-  </si>
-  <si>
     <t>HW1 in GC</t>
   </si>
   <si>
     <t>HW2 in GC</t>
+  </si>
+  <si>
+    <t>[Calibration](https://smr-monitoring.github.io/lesson-plans/03-calibration.html)</t>
+  </si>
+  <si>
+    <t>HW3: tie a bowline, lobster buoy hitch, and half hitch</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1001,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1029,7 +1026,7 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1037,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1048,13 +1045,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1062,13 +1059,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1076,10 +1073,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1087,16 +1087,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1104,10 +1098,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1115,7 +1109,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1123,13 +1117,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1137,13 +1131,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1151,7 +1145,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2"/>
     </row>
@@ -1160,10 +1154,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1171,7 +1165,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1179,7 +1173,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1187,7 +1181,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1195,7 +1189,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/SMR-monitoring/MRNE395-2025SP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09134D52-4228-8F4E-A514-85CEA9CC10C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CE9882-3150-F047-AED3-365B0A74C859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>date</t>
   </si>
@@ -56,12 +56,6 @@
     <t>notes</t>
   </si>
   <si>
-    <t xml:space="preserve">HW6: tie a clove hitch </t>
-  </si>
-  <si>
-    <t>HW7: tie a clove hitch and cleat hitch</t>
-  </si>
-  <si>
     <t>bring your line to class</t>
   </si>
   <si>
@@ -129,6 +123,12 @@
   </si>
   <si>
     <t>HW3: tie a bowline, lobster buoy hitch, and half hitch</t>
+  </si>
+  <si>
+    <t>[YSI setup](https://smr-monitoring.github.io/lesson-plans/04-ysi-setup.html)</t>
+  </si>
+  <si>
+    <t>HW4: tie a clove hitch, bowline, lobster buoy hitch, and half hitch</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1001,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1034,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1045,13 +1045,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1059,13 +1059,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1073,13 +1073,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1087,10 +1090,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1098,10 +1107,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1109,7 +1118,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1117,13 +1126,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1131,13 +1134,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1145,7 +1145,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2"/>
     </row>
@@ -1154,10 +1154,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1165,7 +1162,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1173,7 +1170,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1181,7 +1178,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1189,7 +1186,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/SMR-monitoring/MRNE395-2025SP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CE9882-3150-F047-AED3-365B0A74C859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5BA143-F0F8-4642-8F4E-D3F9394D9B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>date</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>HW4: tie a clove hitch, bowline, lobster buoy hitch, and half hitch</t>
+  </si>
+  <si>
+    <t>[Continuous monitoring - practice deployment](https://smr-monitoring.github.io/lesson-plans/05-conmon.html)</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1004,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1093,7 +1096,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
         <v>31</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/SMR-monitoring/MRNE395-2025SP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5BA143-F0F8-4642-8F4E-D3F9394D9B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41BA7CF-7042-524B-BCF4-69BA651763D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>date</t>
   </si>
@@ -110,9 +110,6 @@
     <t>[Water quality criteria](https://smr-monitoring.github.io/lesson-plans/02-wq-criteria.html)</t>
   </si>
   <si>
-    <t>Continuous monitoring</t>
-  </si>
-  <si>
     <t>HW1 in GC</t>
   </si>
   <si>
@@ -132,6 +129,18 @@
   </si>
   <si>
     <t>[Continuous monitoring - practice deployment](https://smr-monitoring.github.io/lesson-plans/05-conmon.html)</t>
+  </si>
+  <si>
+    <t>CONMON deploy</t>
+  </si>
+  <si>
+    <t>be prepared to go outside</t>
+  </si>
+  <si>
+    <t>CONMON retrieve</t>
+  </si>
+  <si>
+    <t>[Continuous monitoring - data corrections](https://smr-monitoring.github.io/lesson-plans/06-conmon-drift-corrections.html)</t>
   </si>
 </sst>
 </file>
@@ -1004,14 +1013,14 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.1640625" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" customWidth="1"/>
-    <col min="3" max="3" width="83.5" customWidth="1"/>
+    <col min="3" max="3" width="105" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1054,7 +1063,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1065,10 +1074,10 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1079,10 +1088,10 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -1096,10 +1105,10 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -1113,7 +1122,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1123,6 +1132,12 @@
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -1130,6 +1145,12 @@
       </c>
       <c r="B9" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/SMR-monitoring/MRNE395-2025SP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41BA7CF-7042-524B-BCF4-69BA651763D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272A4C06-5002-F24B-A81D-B1C23743FC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
@@ -131,9 +131,6 @@
     <t>[Continuous monitoring - practice deployment](https://smr-monitoring.github.io/lesson-plans/05-conmon.html)</t>
   </si>
   <si>
-    <t>CONMON deploy</t>
-  </si>
-  <si>
     <t>be prepared to go outside</t>
   </si>
   <si>
@@ -141,6 +138,9 @@
   </si>
   <si>
     <t>[Continuous monitoring - data corrections](https://smr-monitoring.github.io/lesson-plans/06-conmon-drift-corrections.html)</t>
+  </si>
+  <si>
+    <t>[CONMON deploy](https://smr-monitoring.github.io/lesson-plans/07-conmon-deploy.html)</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1122,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1133,10 +1133,10 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
         <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1147,10 +1147,10 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/SMR-monitoring/MRNE395-2025SP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272A4C06-5002-F24B-A81D-B1C23743FC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D677E1E4-C4F8-1348-8D92-DD33F2E8A0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
@@ -134,13 +134,13 @@
     <t>be prepared to go outside</t>
   </si>
   <si>
-    <t>CONMON retrieve</t>
-  </si>
-  <si>
     <t>[Continuous monitoring - data corrections](https://smr-monitoring.github.io/lesson-plans/06-conmon-drift-corrections.html)</t>
   </si>
   <si>
     <t>[CONMON deploy](https://smr-monitoring.github.io/lesson-plans/07-conmon-deploy.html)</t>
+  </si>
+  <si>
+    <t>[CONMON retrieve](https://smr-monitoring.github.io/lesson-plans/08-conmon-retrieve.html)</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1122,7 +1122,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1133,7 +1133,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
         <v>32</v>
@@ -1147,7 +1147,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/SMR-monitoring/MRNE395-2025SP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D677E1E4-C4F8-1348-8D92-DD33F2E8A0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE4F4F9-3F42-114A-A3DF-C9AA844E900E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>date</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>[CONMON retrieve](https://smr-monitoring.github.io/lesson-plans/08-conmon-retrieve.html)</t>
+  </si>
+  <si>
+    <t>[Discrete monitoring](https://smr-monitoring.github.io/lesson-plans/09-discrete-monitoring.html)</t>
+  </si>
+  <si>
+    <t>HW5: tie a cleat hitch and clove hitch</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1019,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1171,7 +1177,12 @@
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -1179,6 +1190,9 @@
       </c>
       <c r="B12" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/SMR-monitoring/MRNE395-2025SP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE4F4F9-3F42-114A-A3DF-C9AA844E900E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94A79A8-564E-584E-A821-4EB9E6A82710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>date</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>HW5: tie a cleat hitch and clove hitch</t>
+  </si>
+  <si>
+    <t>[Discrete monitoring by boat](https://smr-monitoring.github.io/lesson-plans/10-discrete-boat.html)</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1022,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1191,6 +1194,9 @@
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D12" t="s">
         <v>37</v>
       </c>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/SMR-monitoring/MRNE395-2025SP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94A79A8-564E-584E-A821-4EB9E6A82710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AE82C9-69CA-584C-9A66-FABD9E59BF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>date</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>[Discrete monitoring by boat](https://smr-monitoring.github.io/lesson-plans/10-discrete-boat.html)</t>
+  </si>
+  <si>
+    <t>Practical assessment</t>
+  </si>
+  <si>
+    <t>Practical assessment practice</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1028,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1216,6 +1222,9 @@
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -1223,6 +1232,9 @@
       </c>
       <c r="B15" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/SMR-monitoring/MRNE395-2025SP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AE82C9-69CA-584C-9A66-FABD9E59BF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397C96AC-2CD0-654D-A0B4-F3A01ABF4599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>date</t>
   </si>
@@ -152,10 +152,10 @@
     <t>[Discrete monitoring by boat](https://smr-monitoring.github.io/lesson-plans/10-discrete-boat.html)</t>
   </si>
   <si>
-    <t>Practical assessment</t>
-  </si>
-  <si>
-    <t>Practical assessment practice</t>
+    <t>[Skills review](https://smr-monitoring.github.io/lesson-plans/11-skills-review.html)</t>
+  </si>
+  <si>
+    <t>[Skills assessment](https://smr-monitoring.github.io/lesson-plans/12-skills-assessment.html)</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1223,7 +1223,10 @@
         <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1234,7 +1237,10 @@
         <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/SMR-monitoring/MRNE395-2025SP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/SMR-monitoring/MRNE395-2025FA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397C96AC-2CD0-654D-A0B4-F3A01ABF4599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D8F2A2-8923-324C-AB74-B271B9D2C1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
+    <workbookView xWindow="33600" yWindow="2120" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>date</t>
   </si>
@@ -59,75 +59,9 @@
     <t>bring your line to class</t>
   </si>
   <si>
-    <t>Th 1/16</t>
-  </si>
-  <si>
-    <t>Th 1/23</t>
-  </si>
-  <si>
-    <t>Th 1/30</t>
-  </si>
-  <si>
-    <t>Th 2/6</t>
-  </si>
-  <si>
-    <t>Th 2/13</t>
-  </si>
-  <si>
-    <t>Th 2/20</t>
-  </si>
-  <si>
-    <t>Th 2/27</t>
-  </si>
-  <si>
-    <t>Th 3/6</t>
-  </si>
-  <si>
-    <t>Th 3/13</t>
-  </si>
-  <si>
-    <t>No class - spring break</t>
-  </si>
-  <si>
-    <t>Th 3/20</t>
-  </si>
-  <si>
-    <t>Th 3/27</t>
-  </si>
-  <si>
-    <t>Th 4/3</t>
-  </si>
-  <si>
-    <t>Th 4/10</t>
-  </si>
-  <si>
-    <t>Th 4/17</t>
-  </si>
-  <si>
-    <t>Th 4/24</t>
-  </si>
-  <si>
-    <t>[Water quality criteria](https://smr-monitoring.github.io/lesson-plans/02-wq-criteria.html)</t>
-  </si>
-  <si>
-    <t>HW1 in GC</t>
-  </si>
-  <si>
-    <t>HW2 in GC</t>
-  </si>
-  <si>
     <t>[Calibration](https://smr-monitoring.github.io/lesson-plans/03-calibration.html)</t>
   </si>
   <si>
-    <t>HW3: tie a bowline, lobster buoy hitch, and half hitch</t>
-  </si>
-  <si>
-    <t>[YSI setup](https://smr-monitoring.github.io/lesson-plans/04-ysi-setup.html)</t>
-  </si>
-  <si>
-    <t>HW4: tie a clove hitch, bowline, lobster buoy hitch, and half hitch</t>
-  </si>
-  <si>
     <t>[Continuous monitoring - practice deployment](https://smr-monitoring.github.io/lesson-plans/05-conmon.html)</t>
   </si>
   <si>
@@ -146,16 +80,106 @@
     <t>[Discrete monitoring](https://smr-monitoring.github.io/lesson-plans/09-discrete-monitoring.html)</t>
   </si>
   <si>
-    <t>HW5: tie a cleat hitch and clove hitch</t>
-  </si>
-  <si>
-    <t>[Discrete monitoring by boat](https://smr-monitoring.github.io/lesson-plans/10-discrete-boat.html)</t>
-  </si>
-  <si>
     <t>[Skills review](https://smr-monitoring.github.io/lesson-plans/11-skills-review.html)</t>
   </si>
   <si>
     <t>[Skills assessment](https://smr-monitoring.github.io/lesson-plans/12-skills-assessment.html)</t>
+  </si>
+  <si>
+    <t>F 09/05</t>
+  </si>
+  <si>
+    <t>F 09/12</t>
+  </si>
+  <si>
+    <t>F 09/19</t>
+  </si>
+  <si>
+    <t>F 09/26</t>
+  </si>
+  <si>
+    <t>F 10/10</t>
+  </si>
+  <si>
+    <t>F 10/17</t>
+  </si>
+  <si>
+    <t>F 10/24</t>
+  </si>
+  <si>
+    <t>F 10/31</t>
+  </si>
+  <si>
+    <t>F 11/07</t>
+  </si>
+  <si>
+    <t>F 11/14</t>
+  </si>
+  <si>
+    <t>F 11/21</t>
+  </si>
+  <si>
+    <t>F 11/28</t>
+  </si>
+  <si>
+    <t>F 12/05</t>
+  </si>
+  <si>
+    <t>F 12/12</t>
+  </si>
+  <si>
+    <t>[Water quality criteria and SAV](https://smr-monitoring.github.io/lesson-plans/02-wq-criteria.html)</t>
+  </si>
+  <si>
+    <t>SAV monitoring - St. Inigoes (be prepared to wade in the water)</t>
+  </si>
+  <si>
+    <t>[Discrete monitoring](https://smr-monitoring.github.io/lesson-plans/10-discrete-boat.html)</t>
+  </si>
+  <si>
+    <t>TBA</t>
+  </si>
+  <si>
+    <t>HW 1</t>
+  </si>
+  <si>
+    <t>HW 2</t>
+  </si>
+  <si>
+    <t>HW 3</t>
+  </si>
+  <si>
+    <t>HW 4</t>
+  </si>
+  <si>
+    <t>HW 5</t>
+  </si>
+  <si>
+    <t>HW 6</t>
+  </si>
+  <si>
+    <t>HW 7</t>
+  </si>
+  <si>
+    <t>HW 8</t>
+  </si>
+  <si>
+    <t>HW 9</t>
+  </si>
+  <si>
+    <t>HW 10</t>
+  </si>
+  <si>
+    <t>W 12/17</t>
+  </si>
+  <si>
+    <t>2:00-4:15 Final written exam</t>
+  </si>
+  <si>
+    <t>F 10/03</t>
+  </si>
+  <si>
+    <t>No class - Thanksgiving break</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1052,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1061,10 +1085,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1072,13 +1099,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1086,13 +1113,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1100,13 +1127,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -1117,13 +1144,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -1134,10 +1161,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1145,13 +1175,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1159,13 +1192,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1173,10 +1209,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1184,13 +1223,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1198,13 +1240,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1212,7 +1254,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1220,13 +1265,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1234,13 +1276,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1248,14 +1290,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="1"/>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/SMR-monitoring/MRNE395-2025FA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D8F2A2-8923-324C-AB74-B271B9D2C1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66030B55-5285-D04E-BD82-9BB175BD3508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="2120" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
+    <workbookView xWindow="33580" yWindow="5860" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>date</t>
   </si>
@@ -131,9 +131,6 @@
     <t>[Water quality criteria and SAV](https://smr-monitoring.github.io/lesson-plans/02-wq-criteria.html)</t>
   </si>
   <si>
-    <t>SAV monitoring - St. Inigoes (be prepared to wade in the water)</t>
-  </si>
-  <si>
     <t>[Discrete monitoring](https://smr-monitoring.github.io/lesson-plans/10-discrete-boat.html)</t>
   </si>
   <si>
@@ -180,6 +177,12 @@
   </si>
   <si>
     <t>No class - Thanksgiving break</t>
+  </si>
+  <si>
+    <t>Be prepared to wade in the water</t>
+  </si>
+  <si>
+    <t>[SAV monitoring - St. Inigoes](https://smr-monitoring.github.io/lesson-plans/03-sav-monitoring.html)</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1055,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1105,7 +1108,7 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1116,10 +1119,13 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1133,10 +1139,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1144,13 +1147,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -1167,7 +1170,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1181,7 +1184,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1198,7 +1201,7 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1212,10 +1215,10 @@
         <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1229,7 +1232,7 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1243,10 +1246,10 @@
         <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1268,7 +1271,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1301,10 +1304,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/SMR-monitoring/MRNE395-2025FA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66030B55-5285-D04E-BD82-9BB175BD3508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC85BE0-FFEB-1942-A23B-2528A9A4FDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33580" yWindow="5860" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>bring your line to class</t>
   </si>
   <si>
-    <t>[Calibration](https://smr-monitoring.github.io/lesson-plans/03-calibration.html)</t>
-  </si>
-  <si>
     <t>[Continuous monitoring - practice deployment](https://smr-monitoring.github.io/lesson-plans/05-conmon.html)</t>
   </si>
   <si>
@@ -183,6 +180,9 @@
   </si>
   <si>
     <t>[SAV monitoring - St. Inigoes](https://smr-monitoring.github.io/lesson-plans/03-sav-monitoring.html)</t>
+  </si>
+  <si>
+    <t>[Calibration](https://smr-monitoring.github.io/lesson-plans/04-calibration.html)</t>
   </si>
 </sst>
 </file>
@@ -1088,13 +1088,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1102,13 +1102,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1116,16 +1116,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1133,13 +1133,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1147,13 +1147,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -1164,13 +1164,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1178,16 +1178,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1195,16 +1195,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1212,13 +1212,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1226,16 +1226,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1243,13 +1243,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1257,10 +1257,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1268,10 +1268,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1279,13 +1279,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1293,7 +1293,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -1304,10 +1304,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/SMR-monitoring/MRNE395-2025FA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC85BE0-FFEB-1942-A23B-2528A9A4FDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC00E5F-15B8-7E44-8161-5DC987D85763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>date</t>
   </si>
@@ -68,12 +68,6 @@
     <t>[Continuous monitoring - data corrections](https://smr-monitoring.github.io/lesson-plans/06-conmon-drift-corrections.html)</t>
   </si>
   <si>
-    <t>[CONMON deploy](https://smr-monitoring.github.io/lesson-plans/07-conmon-deploy.html)</t>
-  </si>
-  <si>
-    <t>[CONMON retrieve](https://smr-monitoring.github.io/lesson-plans/08-conmon-retrieve.html)</t>
-  </si>
-  <si>
     <t>[Discrete monitoring](https://smr-monitoring.github.io/lesson-plans/09-discrete-monitoring.html)</t>
   </si>
   <si>
@@ -183,6 +177,15 @@
   </si>
   <si>
     <t>[Calibration](https://smr-monitoring.github.io/lesson-plans/04-calibration.html)</t>
+  </si>
+  <si>
+    <t>[CONMON deploy](https://smr-monitoring.github.io/lesson-plans/06-conmon-deploy.html)</t>
+  </si>
+  <si>
+    <t>[CONMON retrieve](https://smr-monitoring.github.io/lesson-plans/07-conmon-retrieve.html)</t>
+  </si>
+  <si>
+    <t>bring your line to class; be prepared to go outside</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1058,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1088,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1102,13 +1105,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1116,16 +1119,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1133,13 +1136,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1147,13 +1150,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -1164,13 +1167,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1178,13 +1184,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -1195,16 +1201,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1212,13 +1215,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1226,13 +1229,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -1243,13 +1246,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1257,10 +1260,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1268,10 +1271,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1279,10 +1282,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -1293,7 +1296,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -1304,10 +1307,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/SMR-monitoring/MRNE395-2025FA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC00E5F-15B8-7E44-8161-5DC987D85763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6E19EC-F5D9-6441-B1A8-652697263A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>date</t>
   </si>
@@ -65,9 +65,6 @@
     <t>be prepared to go outside</t>
   </si>
   <si>
-    <t>[Continuous monitoring - data corrections](https://smr-monitoring.github.io/lesson-plans/06-conmon-drift-corrections.html)</t>
-  </si>
-  <si>
     <t>[Discrete monitoring](https://smr-monitoring.github.io/lesson-plans/09-discrete-monitoring.html)</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
     <t>[Discrete monitoring](https://smr-monitoring.github.io/lesson-plans/10-discrete-boat.html)</t>
   </si>
   <si>
-    <t>TBA</t>
-  </si>
-  <si>
     <t>HW 1</t>
   </si>
   <si>
@@ -186,6 +180,12 @@
   </si>
   <si>
     <t>bring your line to class; be prepared to go outside</t>
+  </si>
+  <si>
+    <t>EXO 1</t>
+  </si>
+  <si>
+    <t>EXO 2</t>
   </si>
 </sst>
 </file>
@@ -1057,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDABB12-4657-E148-B974-850E15FFCCAA}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1105,13 +1105,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1119,16 +1119,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1136,13 +1136,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1150,13 +1150,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -1167,16 +1167,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
         <v>48</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1184,13 +1184,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -1201,13 +1201,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1215,13 +1218,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1229,13 +1235,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -1246,13 +1252,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1260,10 +1269,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1271,10 +1280,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1282,10 +1291,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -1296,7 +1305,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -1307,10 +1316,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/SMR-monitoring/MRNE395-2025FA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6E19EC-F5D9-6441-B1A8-652697263A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF97DFE5-7112-4249-BD96-B47746FC418C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
+    <workbookView xWindow="31340" yWindow="1560" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -182,10 +182,10 @@
     <t>bring your line to class; be prepared to go outside</t>
   </si>
   <si>
-    <t>EXO 1</t>
-  </si>
-  <si>
-    <t>EXO 2</t>
+    <t>[CONMON at SMCM overview](https://smr-monitoring.github.io/lesson-plans/08-conmon-at-smcm.html)</t>
+  </si>
+  <si>
+    <t>CONMON at SMCM cont.</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1221,7 +1221,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>36</v>
@@ -1237,8 +1237,8 @@
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>10</v>
+      <c r="C11" t="s">
+        <v>50</v>
       </c>
       <c r="D11" t="s">
         <v>37</v>
